--- a/C ASG/1108 Dofloo單樣本統計/node_statistics_result.xlsx
+++ b/C ASG/1108 Dofloo單樣本統計/node_statistics_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luweb\Documents\GitHub\2022-CCoE\C ASG\1108 Dofloo單樣本統計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515457F6-9B06-47CB-8769-E171425D5E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43F32E2-7C91-4FB7-9B9C-34C11D221CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="-110" windowWidth="18290" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7756,9 +7756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D250"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -7773,27 +7778,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -7801,234 +7806,234 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>174</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -8039,10 +8044,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -8053,24 +8058,24 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -8081,24 +8086,24 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -8109,195 +8114,195 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>335</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -8305,265 +8310,265 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
       </c>
       <c r="D45">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="C47" t="s">
         <v>17</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
         <v>17</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8571,55 +8576,55 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>277</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
       </c>
       <c r="D60">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -8627,27 +8632,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -8655,27 +8660,27 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -8683,265 +8688,265 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="C68" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="C70" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="C71" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>219</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>436</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>21</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="C80" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D81">
-        <v>161</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
+        <v>40</v>
+      </c>
+      <c r="B82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>257</v>
-      </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B83" t="s">
-        <v>259</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>260</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -8949,13 +8954,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>151</v>
       </c>
       <c r="C86" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -8963,13 +8968,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="C87" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -8977,13 +8982,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -8991,13 +8996,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -9005,27 +9010,27 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="C90" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="C91" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -9033,13 +9038,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -9047,13 +9052,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C93" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -9061,13 +9066,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="C94" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -9075,24 +9080,24 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C95" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -9103,24 +9108,24 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -9131,13 +9136,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -9145,10 +9150,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -9159,24 +9164,24 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -9187,10 +9192,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -9201,10 +9206,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -9215,10 +9220,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -9229,10 +9234,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -9243,10 +9248,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -9257,10 +9262,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -9271,10 +9276,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -9285,10 +9290,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -9299,10 +9304,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -9313,10 +9318,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -9327,10 +9332,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -9341,10 +9346,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -9355,10 +9360,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -9369,10 +9374,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -9383,10 +9388,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -9397,10 +9402,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -9411,10 +9416,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -9425,10 +9430,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -9439,10 +9444,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -9453,10 +9458,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -9467,10 +9472,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -9481,10 +9486,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
@@ -9495,10 +9500,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -9509,10 +9514,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -9523,10 +9528,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -9537,10 +9542,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -9551,10 +9556,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -9565,10 +9570,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -9579,10 +9584,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
@@ -9593,10 +9598,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -9607,10 +9612,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
@@ -9621,10 +9626,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
@@ -9635,10 +9640,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
@@ -9649,10 +9654,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -9663,10 +9668,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
@@ -9677,10 +9682,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
@@ -9691,10 +9696,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
@@ -9705,10 +9710,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -9719,10 +9724,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
@@ -9733,10 +9738,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
@@ -9747,10 +9752,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
@@ -9761,10 +9766,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
@@ -9775,10 +9780,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
@@ -9789,10 +9794,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -9803,10 +9808,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
@@ -9817,10 +9822,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
@@ -9831,10 +9836,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
@@ -9845,10 +9850,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
@@ -9859,10 +9864,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
@@ -9873,10 +9878,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
@@ -9887,10 +9892,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
@@ -9901,10 +9906,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -9915,10 +9920,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
@@ -9929,10 +9934,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
@@ -9943,10 +9948,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
@@ -9957,10 +9962,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -9971,10 +9976,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -9985,10 +9990,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -9999,10 +10004,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
@@ -10013,10 +10018,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -10027,10 +10032,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -10041,10 +10046,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
@@ -10055,10 +10060,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -10069,10 +10074,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -10083,10 +10088,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
@@ -10097,10 +10102,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -10111,10 +10116,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -10125,10 +10130,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
@@ -10139,10 +10144,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -10153,10 +10158,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -10167,10 +10172,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -10181,10 +10186,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -10195,10 +10200,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
@@ -10209,10 +10214,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -10223,10 +10228,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -10237,10 +10242,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -10251,10 +10256,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -10265,10 +10270,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -10279,10 +10284,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -10293,10 +10298,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -10307,10 +10312,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -10321,10 +10326,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -10335,10 +10340,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -10349,10 +10354,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -10363,10 +10368,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -10377,10 +10382,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -10391,10 +10396,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -10405,10 +10410,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -10419,10 +10424,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -10433,10 +10438,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B192" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
@@ -10447,10 +10452,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -10461,10 +10466,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -10475,10 +10480,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -10489,10 +10494,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -10503,10 +10508,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -10517,10 +10522,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C198" t="s">
         <v>6</v>
@@ -10531,10 +10536,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C199" t="s">
         <v>6</v>
@@ -10545,10 +10550,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B200" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C200" t="s">
         <v>6</v>
@@ -10559,10 +10564,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B201" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C201" t="s">
         <v>6</v>
@@ -10573,10 +10578,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C202" t="s">
         <v>6</v>
@@ -10587,10 +10592,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C203" t="s">
         <v>6</v>
@@ -10601,10 +10606,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B204" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C204" t="s">
         <v>6</v>
@@ -10615,10 +10620,10 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B205" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -10629,10 +10634,10 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
@@ -10643,10 +10648,10 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
@@ -10657,10 +10662,10 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -10671,10 +10676,10 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B209" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -10685,10 +10690,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B210" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -10699,10 +10704,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -10713,10 +10718,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B212" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -10727,10 +10732,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B213" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C213" t="s">
         <v>6</v>
@@ -10741,10 +10746,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C214" t="s">
         <v>6</v>
@@ -10755,10 +10760,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B215" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C215" t="s">
         <v>6</v>
@@ -10769,10 +10774,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B216" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C216" t="s">
         <v>6</v>
@@ -10783,10 +10788,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C217" t="s">
         <v>6</v>
@@ -10797,10 +10802,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
@@ -10811,10 +10816,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C219" t="s">
         <v>6</v>
@@ -10825,10 +10830,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C220" t="s">
         <v>6</v>
@@ -10839,10 +10844,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C221" t="s">
         <v>6</v>
@@ -10853,10 +10858,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C222" t="s">
         <v>6</v>
@@ -10867,10 +10872,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C223" t="s">
         <v>6</v>
@@ -10881,10 +10886,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -10895,10 +10900,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
@@ -10909,10 +10914,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
@@ -10923,10 +10928,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
@@ -10937,10 +10942,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C228" t="s">
         <v>6</v>
@@ -10951,10 +10956,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C229" t="s">
         <v>6</v>
@@ -10965,10 +10970,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C230" t="s">
         <v>6</v>
@@ -10979,10 +10984,10 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C231" t="s">
         <v>6</v>
@@ -10993,10 +10998,10 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C232" t="s">
         <v>6</v>
@@ -11007,10 +11012,10 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C233" t="s">
         <v>6</v>
@@ -11021,10 +11026,10 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C234" t="s">
         <v>6</v>
@@ -11035,10 +11040,10 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C235" t="s">
         <v>6</v>
@@ -11049,10 +11054,10 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B236" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C236" t="s">
         <v>6</v>
@@ -11063,10 +11068,10 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B237" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
@@ -11077,10 +11082,10 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C238" t="s">
         <v>6</v>
@@ -11091,10 +11096,10 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B239" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C239" t="s">
         <v>6</v>
@@ -11105,10 +11110,10 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C240" t="s">
         <v>6</v>
@@ -11119,10 +11124,10 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B241" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C241" t="s">
         <v>6</v>
@@ -11133,10 +11138,10 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B242" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C242" t="s">
         <v>6</v>
@@ -11147,10 +11152,10 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C243" t="s">
         <v>6</v>
@@ -11161,103 +11166,106 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>427</v>
+        <v>3</v>
       </c>
       <c r="C244" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D244">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="C245" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>174</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
-        <v>244</v>
+        <v>7</v>
       </c>
       <c r="B246" t="s">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="C246" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="B247" t="s">
-        <v>430</v>
+        <v>45</v>
       </c>
       <c r="C247" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>335</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="B248" t="s">
-        <v>431</v>
+        <v>255</v>
       </c>
       <c r="C248" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>161</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
-        <v>247</v>
+        <v>80</v>
       </c>
       <c r="B249" t="s">
-        <v>432</v>
+        <v>257</v>
       </c>
       <c r="C249" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
-        <v>248</v>
+        <v>81</v>
       </c>
       <c r="B250" t="s">
-        <v>433</v>
+        <v>259</v>
       </c>
       <c r="C250" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D250">
+    <sortCondition ref="C1:C250"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -11267,9 +11275,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D379"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -16584,8 +16597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -16594,7 +16607,7 @@
     <col min="4" max="4" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16605,253 +16618,256 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>0</v>
-      </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>253</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>437</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
         <v>262</v>
       </c>
       <c r="D12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>192</v>
+        <v>263</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>266</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>269</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>262</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -16859,13 +16875,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -16873,13 +16889,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>271</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -16887,125 +16903,125 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -17013,10 +17029,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
@@ -17027,206 +17043,206 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>257</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="C34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B36" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="C39" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C43" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="C45" t="s">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -17235,12 +17251,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -17249,29 +17265,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>437</v>
+        <v>290</v>
       </c>
       <c r="C48" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -17282,10 +17295,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
@@ -17296,10 +17309,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -17310,10 +17323,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -17324,10 +17337,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -17338,10 +17351,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
@@ -17352,10 +17365,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -17366,10 +17379,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
@@ -17380,10 +17393,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
@@ -17394,10 +17407,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
@@ -17408,10 +17421,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -17422,10 +17435,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
@@ -17436,10 +17449,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C61" t="s">
         <v>6</v>
@@ -17450,10 +17463,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
@@ -17464,10 +17477,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
@@ -17478,10 +17491,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
@@ -17492,10 +17505,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
@@ -17506,10 +17519,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -17520,10 +17533,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -17534,10 +17547,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -17548,10 +17561,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -17562,10 +17575,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -17576,10 +17589,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -17590,10 +17603,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
@@ -17604,10 +17617,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -17618,10 +17631,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
@@ -17632,10 +17645,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -17646,10 +17659,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
@@ -17660,10 +17673,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
@@ -17674,10 +17687,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
@@ -17688,10 +17701,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -17702,10 +17715,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -17716,10 +17729,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -17730,10 +17743,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
@@ -17744,10 +17757,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -17758,10 +17771,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
@@ -17772,10 +17785,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -17786,10 +17799,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
@@ -17800,10 +17813,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -17814,10 +17827,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
@@ -17828,10 +17841,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
@@ -17842,10 +17855,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
@@ -17856,10 +17869,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -17870,10 +17883,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B92" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
@@ -17884,10 +17897,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -17898,10 +17911,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -17912,10 +17925,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
@@ -17926,10 +17939,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -17940,10 +17953,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
@@ -17954,10 +17967,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
@@ -17968,10 +17981,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
@@ -17982,10 +17995,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
@@ -17996,10 +18009,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
@@ -18010,10 +18023,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
@@ -18024,10 +18037,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
@@ -18038,10 +18051,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -18052,10 +18065,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -18066,10 +18079,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C106" t="s">
         <v>6</v>
@@ -18080,10 +18093,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -18094,10 +18107,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -18108,10 +18121,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C109" t="s">
         <v>6</v>
@@ -18122,10 +18135,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C110" t="s">
         <v>6</v>
@@ -18136,10 +18149,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="C111" t="s">
         <v>6</v>
@@ -18150,10 +18163,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
@@ -18164,10 +18177,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C113" t="s">
         <v>6</v>
@@ -18178,10 +18191,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C114" t="s">
         <v>6</v>
@@ -18192,10 +18205,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -18206,10 +18219,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C116" t="s">
         <v>6</v>
@@ -18220,10 +18233,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C117" t="s">
         <v>6</v>
@@ -18234,10 +18247,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C118" t="s">
         <v>6</v>
@@ -18248,10 +18261,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C119" t="s">
         <v>6</v>
@@ -18262,10 +18275,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C120" t="s">
         <v>6</v>
@@ -18276,10 +18289,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C121" t="s">
         <v>6</v>
@@ -18290,10 +18303,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -18304,10 +18317,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C123" t="s">
         <v>6</v>
@@ -18318,10 +18331,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
         <v>6</v>
@@ -18332,10 +18345,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -18346,10 +18359,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C126" t="s">
         <v>6</v>
@@ -18360,10 +18373,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C127" t="s">
         <v>6</v>
@@ -18374,10 +18387,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
@@ -18388,10 +18401,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
@@ -18402,10 +18415,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C130" t="s">
         <v>6</v>
@@ -18416,10 +18429,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C131" t="s">
         <v>6</v>
@@ -18430,10 +18443,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C132" t="s">
         <v>6</v>
@@ -18444,10 +18457,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C133" t="s">
         <v>6</v>
@@ -18458,10 +18471,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C134" t="s">
         <v>6</v>
@@ -18472,10 +18485,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C135" t="s">
         <v>6</v>
@@ -18486,10 +18499,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C136" t="s">
         <v>6</v>
@@ -18500,10 +18513,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
         <v>6</v>
@@ -18514,10 +18527,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C138" t="s">
         <v>6</v>
@@ -18528,10 +18541,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C139" t="s">
         <v>6</v>
@@ -18542,10 +18555,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B140" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C140" t="s">
         <v>6</v>
@@ -18556,10 +18569,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B141" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C141" t="s">
         <v>6</v>
@@ -18570,10 +18583,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C142" t="s">
         <v>6</v>
@@ -18584,10 +18597,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C143" t="s">
         <v>6</v>
@@ -18598,10 +18611,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C144" t="s">
         <v>6</v>
@@ -18612,10 +18625,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
@@ -18626,10 +18639,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
@@ -18640,10 +18653,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C147" t="s">
         <v>6</v>
@@ -18654,10 +18667,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C148" t="s">
         <v>6</v>
@@ -18668,10 +18681,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C149" t="s">
         <v>6</v>
@@ -18682,10 +18695,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C150" t="s">
         <v>6</v>
@@ -18696,10 +18709,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C151" t="s">
         <v>6</v>
@@ -18710,10 +18723,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="C152" t="s">
         <v>6</v>
@@ -18724,10 +18737,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C153" t="s">
         <v>6</v>
@@ -18738,10 +18751,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C154" t="s">
         <v>6</v>
@@ -18752,10 +18765,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C155" t="s">
         <v>6</v>
@@ -18766,10 +18779,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C156" t="s">
         <v>6</v>
@@ -18780,10 +18793,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="C157" t="s">
         <v>6</v>
@@ -18794,10 +18807,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C158" t="s">
         <v>6</v>
@@ -18808,10 +18821,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C159" t="s">
         <v>6</v>
@@ -18822,10 +18835,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C160" t="s">
         <v>6</v>
@@ -18836,10 +18849,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C161" t="s">
         <v>6</v>
@@ -18850,10 +18863,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
@@ -18864,10 +18877,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C163" t="s">
         <v>6</v>
@@ -18878,10 +18891,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="C164" t="s">
         <v>6</v>
@@ -18892,10 +18905,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C165" t="s">
         <v>6</v>
@@ -18906,10 +18919,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C166" t="s">
         <v>6</v>
@@ -18920,10 +18933,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="C167" t="s">
         <v>6</v>
@@ -18934,10 +18947,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C168" t="s">
         <v>6</v>
@@ -18948,10 +18961,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C169" t="s">
         <v>6</v>
@@ -18962,10 +18975,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C170" t="s">
         <v>6</v>
@@ -18976,10 +18989,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C171" t="s">
         <v>6</v>
@@ -18990,10 +19003,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C172" t="s">
         <v>6</v>
@@ -19004,10 +19017,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="C173" t="s">
         <v>6</v>
@@ -19018,10 +19031,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -19032,10 +19045,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C175" t="s">
         <v>6</v>
@@ -19046,10 +19059,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
@@ -19060,10 +19073,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
@@ -19074,10 +19087,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C178" t="s">
         <v>6</v>
@@ -19088,10 +19101,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="C179" t="s">
         <v>6</v>
@@ -19102,10 +19115,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C180" t="s">
         <v>6</v>
@@ -19116,10 +19129,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
@@ -19130,10 +19143,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -19144,10 +19157,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
@@ -19158,10 +19171,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
@@ -19172,10 +19185,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -19186,10 +19199,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -19200,10 +19213,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -19214,10 +19227,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -19228,10 +19241,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -19242,10 +19255,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -19256,10 +19269,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -19270,83 +19283,83 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="B192" t="s">
-        <v>427</v>
+        <v>255</v>
       </c>
       <c r="C192" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>158</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
-        <v>428</v>
+        <v>19</v>
       </c>
       <c r="C193" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>429</v>
+        <v>45</v>
       </c>
       <c r="C194" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>193</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>430</v>
+        <v>20</v>
       </c>
       <c r="C195" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="B196" t="s">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="C196" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>195</v>
+        <v>28</v>
       </c>
       <c r="B197" t="s">
-        <v>432</v>
+        <v>257</v>
       </c>
       <c r="C197" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -19354,21 +19367,21 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="B198" t="s">
-        <v>433</v>
+        <v>259</v>
       </c>
       <c r="C198" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D198">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D198">
-    <sortCondition descending="1" ref="D1:D198"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E198">
+    <sortCondition ref="C1:C198"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
